--- a/data/trans_dic/P5_2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de jardín en su vivienda</t>
+          <t>Población que disfruta de jardín en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>17,6%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,97; 25,4</t>
+          <t>7,64; 31,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,08; 44,09</t>
+          <t>6,49; 30,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,8; 22,45</t>
+          <t>8,14; 30,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,65; 22,07</t>
+          <t>8,61; 32,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,99; 20,49</t>
+          <t>10,33; 26,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,57; 29,8</t>
+          <t>10,17; 27,85</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>16,06%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,41; 22,71</t>
+          <t>12,89; 26,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,3; 23,23</t>
+          <t>13,7; 27,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,48; 16,83</t>
+          <t>7,85; 18,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,26; 18,47</t>
+          <t>7,86; 18,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,48; 18,73</t>
+          <t>12,01; 20,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,04; 19,41</t>
+          <t>12,22; 20,65</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>16,64%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 24,58</t>
+          <t>13,47; 28,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,54; 29,05</t>
+          <t>15,1; 31,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 15,63</t>
+          <t>7,83; 18,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 15,06</t>
+          <t>7,89; 17,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,31; 18,06</t>
+          <t>11,78; 20,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,27; 20,28</t>
+          <t>12,66; 21,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 21,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,2; 24,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 15,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,55; 15,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,22; 17,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,15; 19,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19,32%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20,44%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12,92%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13,11%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15,05; 24,24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15,89; 25,71</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10,03; 16,8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10,22; 16,93</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13,44; 18,91</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13,9; 19,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de jardín en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17881</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21059</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>20484</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>26688</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>38366</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>47747</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7899; 32518</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8364; 39112</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9593; 36129</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12274; 46300</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22846; 59348</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27603; 75569</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>69961</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>86270</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>48572</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>57313</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>118533</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>143582</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>47171; 96741</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>58853; 119167</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>30650; 70345</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>36492; 83601</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>90891; 154510</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>109212; 184576</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>58088</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>74888</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>43061</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>51754</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>101148</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>126642</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>38520; 80142</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>50275; 103374</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>28147; 65066</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33807; 76818</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>76047; 130293</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>96346; 161835</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>145930</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>182216</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>112117</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>135755</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>258047</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>317971</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>113704; 183090</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>141655; 229127</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>87059; 145797</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>105839; 175287</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>218183; 306941</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>267831; 382251</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>